--- a/xlsx_storage/4.xlsx
+++ b/xlsx_storage/4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ubuntu\python\classMaker\xlsx_storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ubuntu\python\classMaker\xlsx_storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98295265-0B53-4C6E-BFCA-B0875E316239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA1A23C-ABE5-4A04-AD14-67619C148C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="795" windowWidth="14130" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="39">
   <si>
     <t>학생 이름</t>
   </si>
@@ -136,6 +136,9 @@
   <si>
     <t>공격적</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 (A/B/C/D)</t>
   </si>
 </sst>
 </file>
@@ -521,15 +524,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E1" sqref="E1:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,16 +546,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -566,13 +572,16 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -586,13 +595,16 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -606,13 +618,16 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -626,13 +641,16 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -646,13 +664,16 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -666,13 +687,16 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -686,13 +710,16 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -706,13 +733,16 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -726,13 +756,16 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -746,13 +779,16 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -766,13 +802,16 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -786,16 +825,19 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
       </c>
       <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -809,13 +851,16 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -829,13 +874,16 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -849,13 +897,16 @@
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -869,13 +920,16 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -889,13 +943,16 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -909,13 +966,16 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -929,13 +989,16 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -949,13 +1012,16 @@
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -969,13 +1035,16 @@
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -989,13 +1058,16 @@
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1009,9 +1081,12 @@
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
         <v>10</v>
       </c>
     </row>

--- a/xlsx_storage/4.xlsx
+++ b/xlsx_storage/4.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ubuntu\python\classMaker\xlsx_storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.42.110.249\4학년\0. 2024. 취합\반편성사전자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4559F671-B3A6-4B2E-993E-F3994FD7D8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE13075-A9D7-4F7B-B040-0A1BAECA168A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="44">
   <si>
     <t>반</t>
   </si>
@@ -52,94 +63,116 @@
     <t>비고</t>
   </si>
   <si>
-    <t>예시401</t>
+    <t>후세인</t>
+  </si>
+  <si>
+    <t>김도윤</t>
+  </si>
+  <si>
+    <t>김리원</t>
+  </si>
+  <si>
+    <t>김민서</t>
+  </si>
+  <si>
+    <t>김수현</t>
+  </si>
+  <si>
+    <t>김지후</t>
+  </si>
+  <si>
+    <t>김채은</t>
+  </si>
+  <si>
+    <t>김태웅</t>
+  </si>
+  <si>
+    <t>민예린</t>
+  </si>
+  <si>
+    <t>박보은</t>
+  </si>
+  <si>
+    <t>박현지</t>
+  </si>
+  <si>
+    <t>배슬민</t>
+  </si>
+  <si>
+    <t>송윤우</t>
+  </si>
+  <si>
+    <t>송지민</t>
+  </si>
+  <si>
+    <t>안준혁</t>
+  </si>
+  <si>
+    <t>유승민</t>
+  </si>
+  <si>
+    <t>유지수</t>
+  </si>
+  <si>
+    <t>이윤후</t>
+  </si>
+  <si>
+    <t>정서율</t>
+  </si>
+  <si>
+    <t>정하은</t>
+  </si>
+  <si>
+    <t>최예성</t>
+  </si>
+  <si>
+    <t>홍라임</t>
   </si>
   <si>
     <t>남</t>
   </si>
   <si>
+    <t>여</t>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>예시402</t>
-  </si>
-  <si>
-    <t>예시403</t>
-  </si>
-  <si>
-    <t>예시404</t>
-  </si>
-  <si>
-    <t>예시405</t>
-  </si>
-  <si>
-    <t>예시406</t>
-  </si>
-  <si>
-    <t>예시407</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>예시408</t>
-  </si>
-  <si>
-    <t>예시409</t>
-  </si>
-  <si>
-    <t>예시411</t>
-  </si>
-  <si>
-    <t>여</t>
-  </si>
-  <si>
-    <t>예시412</t>
-  </si>
-  <si>
-    <t>공격적</t>
-  </si>
-  <si>
-    <t>예시413</t>
-  </si>
-  <si>
-    <t>예시414</t>
-  </si>
-  <si>
-    <t>예시415</t>
-  </si>
-  <si>
-    <t>예시416</t>
-  </si>
-  <si>
-    <t>예시417</t>
-  </si>
-  <si>
-    <t>예시418</t>
-  </si>
-  <si>
-    <t>예시419</t>
-  </si>
-  <si>
-    <t>예시420</t>
-  </si>
-  <si>
-    <t>예시421</t>
-  </si>
-  <si>
-    <t>예시422</t>
-  </si>
-  <si>
-    <t>예시423</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>후세인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>집중력 저하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학폭(피해)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -514,7 +547,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -562,22 +595,25 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -588,25 +624,25 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -617,25 +653,25 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -646,25 +682,28 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -675,25 +714,25 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -704,25 +743,28 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -733,25 +775,25 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -762,25 +804,25 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -791,25 +833,25 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -817,28 +859,31 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -846,31 +891,28 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -878,28 +920,28 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -907,28 +949,28 @@
         <v>4</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -936,28 +978,28 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -965,205 +1007,208 @@
         <v>4</v>
       </c>
       <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
         <v>26</v>
       </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D18" t="s">
         <v>33</v>
       </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19">
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20">
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21">
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>4</v>
-      </c>
-      <c r="B22">
-        <v>22</v>
-      </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1171,29 +1216,30 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I23" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>